--- a/TestCases_2_MQA_Anastasia_Stryzhak.xlsx
+++ b/TestCases_2_MQA_Anastasia_Stryzhak.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1.1_QA_Deveducation\Git_Finish_MQA_Anastasia_Stryzhak\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFCD4CFA-CC3C-4C3F-81C7-4F62FE0B55B9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="82">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -257,34 +266,41 @@
   </si>
   <si>
     <t>Сообщение успешно отправлено, высветилось сообщение "Мы отправим вам уведомление по электронной почте, когда Cora ответит."</t>
+  </si>
+  <si>
+    <t>Test5_TestCases</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Proxima-nova"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
     </font>
@@ -294,7 +310,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -316,7 +332,13 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -330,95 +352,83 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -608,27 +618,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="38.5"/>
-    <col customWidth="1" min="3" max="3" width="25.5"/>
-    <col customWidth="1" min="4" max="4" width="26.13"/>
-    <col customWidth="1" min="5" max="5" width="25.38"/>
-    <col customWidth="1" min="6" max="6" width="25.0"/>
+    <col min="2" max="2" width="38.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="26.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -646,9 +661,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
@@ -666,7 +681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6">
       <c r="A3" s="7"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
@@ -680,7 +695,7 @@
       </c>
       <c r="F3" s="9"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4" s="7"/>
       <c r="B4" s="9"/>
       <c r="C4" s="6" t="s">
@@ -692,7 +707,7 @@
       <c r="E4" s="10"/>
       <c r="F4" s="9"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6">
       <c r="A5" s="7"/>
       <c r="B5" s="9"/>
       <c r="C5" s="6" t="s">
@@ -704,9 +719,9 @@
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6">
       <c r="A6" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>17</v>
@@ -722,7 +737,7 @@
       </c>
       <c r="F6" s="14"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="11" t="s">
@@ -736,7 +751,7 @@
       </c>
       <c r="F7" s="14"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6">
       <c r="A8" s="7"/>
       <c r="B8" s="14"/>
       <c r="C8" s="11" t="s">
@@ -748,7 +763,7 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6">
       <c r="A9" s="7"/>
       <c r="B9" s="14"/>
       <c r="C9" s="11" t="s">
@@ -760,9 +775,9 @@
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6">
       <c r="A10" s="15">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>23</v>
@@ -780,7 +795,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6">
       <c r="A11" s="7"/>
       <c r="B11" s="9"/>
       <c r="C11" s="6" t="s">
@@ -794,7 +809,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6">
       <c r="A12" s="7"/>
       <c r="B12" s="9"/>
       <c r="C12" s="6" t="s">
@@ -806,9 +821,9 @@
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6">
       <c r="A13" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>29</v>
@@ -824,7 +839,7 @@
       </c>
       <c r="F13" s="14"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6">
       <c r="A14" s="7"/>
       <c r="B14" s="14"/>
       <c r="C14" s="12" t="s">
@@ -838,7 +853,7 @@
       </c>
       <c r="F14" s="14"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6">
       <c r="A15" s="7"/>
       <c r="B15" s="14"/>
       <c r="C15" s="12" t="s">
@@ -850,9 +865,9 @@
       <c r="E15" s="16"/>
       <c r="F15" s="14"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6">
       <c r="A16" s="15">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>32</v>
@@ -870,7 +885,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6">
       <c r="A17" s="7"/>
       <c r="B17" s="9"/>
       <c r="C17" s="6" t="s">
@@ -882,7 +897,7 @@
       <c r="E17" s="17"/>
       <c r="F17" s="9"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6">
       <c r="A18" s="7"/>
       <c r="B18" s="9"/>
       <c r="C18" s="6" t="s">
@@ -894,9 +909,9 @@
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6">
       <c r="A19" s="18">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>40</v>
@@ -914,7 +929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6">
       <c r="A20" s="7"/>
       <c r="B20" s="14"/>
       <c r="C20" s="19" t="s">
@@ -928,7 +943,7 @@
       </c>
       <c r="F20" s="14"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6">
       <c r="A21" s="7"/>
       <c r="B21" s="14"/>
       <c r="C21" s="12" t="s">
@@ -940,7 +955,7 @@
       <c r="E21" s="14"/>
       <c r="F21" s="14"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6">
       <c r="A22" s="18"/>
       <c r="B22" s="12"/>
       <c r="C22" s="12" t="s">
@@ -952,7 +967,7 @@
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6">
       <c r="A23" s="7"/>
       <c r="B23" s="14"/>
       <c r="C23" s="12" t="s">
@@ -964,7 +979,7 @@
       <c r="E23" s="12"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6">
       <c r="A24" s="7"/>
       <c r="B24" s="14"/>
       <c r="C24" s="12" t="s">
@@ -976,7 +991,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:6">
       <c r="A25" s="18"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12" t="s">
@@ -988,7 +1003,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6">
       <c r="A26" s="7"/>
       <c r="B26" s="14"/>
       <c r="C26" s="12" t="s">
@@ -1000,7 +1015,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6">
       <c r="A27" s="7"/>
       <c r="B27" s="14"/>
       <c r="C27" s="12" t="s">
@@ -1012,7 +1027,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6">
       <c r="A28" s="7"/>
       <c r="B28" s="14"/>
       <c r="C28" s="12" t="s">
@@ -1024,9 +1039,9 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6">
       <c r="A29" s="20">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B29" s="6" t="s">
         <v>62</v>
@@ -1044,7 +1059,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6">
       <c r="A30" s="7"/>
       <c r="B30" s="9"/>
       <c r="C30" s="6" t="s">
@@ -1058,7 +1073,7 @@
       </c>
       <c r="F30" s="9"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6">
       <c r="A31" s="7"/>
       <c r="B31" s="9"/>
       <c r="C31" s="6" t="s">
@@ -1070,9 +1085,9 @@
       <c r="E31" s="17"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6">
       <c r="A32" s="20">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>69</v>
@@ -1088,7 +1103,7 @@
       </c>
       <c r="F32" s="21"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6">
       <c r="A33" s="7"/>
       <c r="B33" s="14"/>
       <c r="C33" s="12" t="s">
@@ -1102,9 +1117,9 @@
       </c>
       <c r="F33" s="14"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6">
       <c r="A34" s="20">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>72</v>
@@ -1120,7 +1135,7 @@
       </c>
       <c r="F34" s="10"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:6">
       <c r="A35" s="7"/>
       <c r="B35" s="9"/>
       <c r="C35" s="22" t="s">
@@ -1132,7 +1147,7 @@
       <c r="E35" s="6"/>
       <c r="F35" s="9"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6">
       <c r="A36" s="7"/>
       <c r="B36" s="9"/>
       <c r="C36" s="6" t="s">
@@ -1144,7 +1159,7 @@
       <c r="E36" s="17"/>
       <c r="F36" s="9"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6">
       <c r="A37" s="7"/>
       <c r="B37" s="9"/>
       <c r="C37" s="6" t="s">
@@ -1156,7 +1171,7 @@
       <c r="E37" s="6"/>
       <c r="F37" s="9"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6">
       <c r="A38" s="7"/>
       <c r="B38" s="9"/>
       <c r="C38" s="6" t="s">
@@ -1168,7 +1183,7 @@
       <c r="E38" s="17"/>
       <c r="F38" s="9"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6">
       <c r="A39" s="7"/>
       <c r="B39" s="9"/>
       <c r="C39" s="6" t="s">
@@ -1180,7 +1195,12 @@
       <c r="E39" s="17"/>
       <c r="F39" s="9"/>
     </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A40" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>